--- a/biology/Zoologie/Grippe_aviaire_en_Indonésie/Grippe_aviaire_en_Indonésie.xlsx
+++ b/biology/Zoologie/Grippe_aviaire_en_Indonésie/Grippe_aviaire_en_Indonésie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grippe_aviaire_en_Indon%C3%A9sie</t>
+          <t>Grippe_aviaire_en_Indonésie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus H5N1 de la grippe aviaire présentait jusqu'en 2004 en Asie un pic de novembre à mars, mais en 2004, une seconde vague de flambées a repris en juillet-août malgré les mesures sanitaires. Moins sévère, cette vague a cependant inquiété les experts, car le virus y acquiert progressivement des caractéristiques éventuellement pré-pandémiques, alors que la volaille est particulièrement difficile à surveiller dans un archipel fragmenté où seraient élevés environ 300 millions de poulets de basse-cour par 30 millions environ de familles. De plus le commerce des poulets ou canetons de 1 jour s'est développé dans le pays.Un variant du virus semble avoir trouvé une nouvelle niche écologique dans ces élevages et devient quasi-endémique en Asie, touchant une surface de plus en plus vaste et augmentant ainsi ses chances de muter, ou se recombiner avec un virus de la grippe saisonnière pour devenir plus contagieux pour l'homme, tout en conservant une forte pathogénicité.
 Autre fait inquiétant : en 2006, une souche humaine du virus H5N1 semble diverger de la souche aviaire en Indonésie. La grande majorité des virus humains indonésiens séquencés les 6 premiers mois de 2006 avaient un site de clivage différent sur le gène Ha, de type RESRRRKKR (insertion d’un S) que les virologues n'ont trouvé que dans le génome de virus humains récents, et chez un chat, mais jamais chez des virus aviaires, y compris autour des foyers humains. Cette séquence nouvelle n’a pas non plus été trouvé dans aucun des isolat des bases de données (GenBank et Los Alamos) venant d'autres pays. Elle ne semble pas a priori avoir rendu le virus plus dangereux, mais laisse penser que les cas humains du printemps et de l’été 2006 ne sont pas liés à la volaille, ce qui pose question.
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grippe_aviaire_en_Indon%C3%A9sie</t>
+          <t>Grippe_aviaire_en_Indonésie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -523,7 +535,9 @@
           <t>Le dispositif en 2006</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les soins hospitalier sont gratuits avec une priorité pour les personnes testées positives au H5N1. 
 Un dispositif de tests sur les animaux est actif autour de la capitale, Djakarta où ont été détectés les cas humains les plus nombreux. 
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grippe_aviaire_en_Indon%C3%A9sie</t>
+          <t>Grippe_aviaire_en_Indonésie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Budgets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Jakarta en juin 2002, lors de la conférence internationale sur la grippe aviaire, l'Indonésie a demandé à l'ONU une aide de 900 millions de dollars pour les 3 ans à venir.
 </t>
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grippe_aviaire_en_Indon%C3%A9sie</t>
+          <t>Grippe_aviaire_en_Indonésie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Contexte aggravant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>De janvier à avril 2004, le pays est victime d'une grande flambée de dengue (plus de 58 000 cas et plus de 650 morts) qui a été traité en priorité par les services sanitaires. La grippe aviaire a lors pu s’étendre discrètement dans les élevages (pas de données concernant les oiseaux sauvages). 
 Il y aurait environ 1,3 milliard de poulets (début 2006) dans le pays, qui vivent depuis toujours avec la population. Les combats de coqs sont populaires. 
@@ -613,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grippe_aviaire_en_Indon%C3%A9sie</t>
+          <t>Grippe_aviaire_en_Indonésie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,11 +651,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Avant 2006
-Mercredi 20 juillet 2005 : 3 premiers décès imputés au H5N1 sont enregistrés dans le pays (un père et ses 2 filles tombés malades début juillet 2005). Des porcs sont abattus près de Jakarta (ce qui n'avait été fait dans aucun autre pays), pour freiner l'épidémie due au H5N1. Selon la presse, il était question de d'abord tuer 200 animaux, chiffre diminué à la suite de querelles entre responsables sur les moyens de limiter la maladie.
-Dimanche 24 juillet 2005 : Dix-huit porcs, atteints du virus H5N1 ont été tués dimanche dans deux exploitations agricoles des faubourgs de Djakarta selon la presse
-2006
-Vendredi 24 février 2006 : 19e victime confirmée : un homme de 23 ans, mort à Jakarta 10 jours auparavant.
+          <t>Avant 2006</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mercredi 20 juillet 2005 : 3 premiers décès imputés au H5N1 sont enregistrés dans le pays (un père et ses 2 filles tombés malades début juillet 2005). Des porcs sont abattus près de Jakarta (ce qui n'avait été fait dans aucun autre pays), pour freiner l'épidémie due au H5N1. Selon la presse, il était question de d'abord tuer 200 animaux, chiffre diminué à la suite de querelles entre responsables sur les moyens de limiter la maladie.
+Dimanche 24 juillet 2005 : Dix-huit porcs, atteints du virus H5N1 ont été tués dimanche dans deux exploitations agricoles des faubourgs de Djakarta selon la presse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Grippe_aviaire_en_Indonésie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grippe_aviaire_en_Indon%C3%A9sie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendredi 24 février 2006 : 19e victime confirmée : un homme de 23 ans, mort à Jakarta 10 jours auparavant.
 Samedi 25 février 2006 : 20e victime confirmée : une femme de 27 ans (Yulia) morte lundi 20 février 2006, mais dont le décès n’a été annoncé que mercredi 22 (Source : ministère indonésien de la santé).
 Mercredi 1er mars 2006 : À Bandung, selon le journal le nombre de malades suspectés de grippe aviaire est passé de 11 à 66.
 Jeudi 2 mars 2006 : Dans l’île de Batam, on pulvérise des désinfectant dans le village de Panglong (district de Nongsa) après que des tests en laboratoire ont montré que des volailles étaient atteintes du H5N1 (sur au moins huit poulets trouvés morts avec les têtes bleues et gonflées)
@@ -711,7 +768,7 @@
 Dimanche 20 août 2006 : le Gvt annonce que Euis Lina est morte le jeudi 17 août 2006 juste après son arrivée à l'hôpital et que les tests ont mis en évidence le H5N1 dans son organisme, en faisant la 46e victime humaine, et 59e cas humain du pays. Les premiers symptômes dataient du 8 août. Par la presse, on apprend que sa fille de 9 ans était morte une semaine avant, également avec les symptômes de la grippe aviaire, mais on lui avait diagnostiqué le typhus (ou typhoïde selon les sources), sans qu'aucune analyse n'ait été pratiquée. Étant donné le délai d'incubation, il pourrait s'agir d'une contamination inter-humaine par le H5N1.
 Cikelet apparaît peu à peu comme ayant été très touché par le virus H5N1 qui aurait pu y tuer jusqu’à 12 personnes fin juillet et début août, dont 5 mortes rapidement sans diagnostic ni échantillons (dans ces régions reculées, les tests sont rarement disponibles). Le nombre de cas suspects est porté à 18 le 21 août 2006.
 Une petite fille morte aurait notamment pu infecter son frère et son cousin, mais l’OMS n’a pas retenu ce cas comme suspicion de transmission interhumaine faute d’analyse et d’échantillons.
-Le site [1] estime qu’il y a néanmoins de forts indices convergents évoquant des contagions inter-humaines (cf. coïncidence de lieux, proximité des malades et chronologie d’apparition des symptômes chez des proches, des voisins ou les membres de mêmes familles).
+Le site  estime qu’il y a néanmoins de forts indices convergents évoquant des contagions inter-humaines (cf. coïncidence de lieux, proximité des malades et chronologie d’apparition des symptômes chez des proches, des voisins ou les membres de mêmes familles).
 le garçonnet de 5 ans hospitalisé samedi 19 août porte à 10 le nombre de cas suspects dans le village de Cikelet et de Cigadog (deux villages très isolés, qu’on ne joint que par des pistes et chemins difficiles, à +/* 130 k m au sud de Garut), faisant craindre un second foyer groupé (cluster), indice possible d’une mutation rendant le virus plus contagieux. L’enfant qui habitait le hameau de Rancamareme est le frère d'une fillette morte 15 jours avant, début août 2006 après des symptômes de grippe aviaire, mais qui n’a pas été testée pour le virus.
 Chez 10 des cas suspects, le virus n’a pas été détecté par les tests, mais ce peut être dû au fait que ces malades (seconde vague) ont tous reçu du Tamiflu (qui peut produire des faux-négatifs (normaux et fréquents si le test est fait 2 à 3 jours après le début du traitement). Des tests sérologiques pourront confirmer le H5N1 s’il est en cause, mais 2 à 4 semaines après l’infection seulement.
 40 résidents ayant eu des contacts avec des malades ou suspectés de l’être subissent une analyse de sang. Selon le gouvernement, ils coopèrent volontiers. Du Tamiflu est préventivement donné à tous ceux qui souffrent de fièvre dans le village (20 août).
@@ -725,7 +782,62 @@
 à Garut ; deux nouveaux patients sont hospitalisés faisant passer à 20 le nombre de cas suspects de ce que certains experts évoquent comme un « cluster » (cas groupés).
 environ 30 millions de familles indonésiennes ont une basse-cour. Le 23 aout, l’état les incite à les maintenir propres avec l’espoir que le pays soit indemne du H5N1 d'ici 2008.
 à Bekasi : Un cas humain (mort) est confirmé le 23 août 2006 ; le 62e pour le pays ; une fillette de 6 ans, morte du H5N1 dans le district de jatiasih dans la Province de Java Ouest près de la capitale Jakarta. Tombée malade le 6 août, elle a été hospitalisée le 11 et semble en voie de guérison (OMS)..
-Rem : Recombinomics commente régulièrement l’actualité, notant que la séquence du virus trouvé chez l’humain à Bekasi diffère de celle trouvé chez les oiseaux morts en Indonésie. Ce qui pourrait signifier qu’il y ait une autre source de virus que l’oiseau (ou transmission i</t>
+Rem : Recombinomics commente régulièrement l’actualité, notant que la séquence du virus trouvé chez l’humain à Bekasi diffère de celle trouvé chez les oiseaux morts en Indonésie. Ce qui pourrait signifier qu’il y ait une autre source de virus que l’oiseau (ou transmission interhumaine d’un virus muté ?), et l’une des malades (Nursifa) n’aurait pas eu de contact récent avec des poulets.
+Budgets : Bayu Krisnamurti, chef de la task force indonésienne contre la grippe aviaire a dit le 24 août 2006 que le budget initial prévu par Jakarta serait réduit de $54.4m en 2006 à $46.5M (€39M, £24.5M) in 2007, alors que plus de 30 millions pourraient être libérés pour financer l’envoi de soldats indonésiens au Liban (avec remboursement de l’ONU à terme). Au même moment, la banque mondiale presse Jakarta de dépenser plus contre le H5N1 ; $36,5M d’aides internationales contre le virus avaient été </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grippe_aviaire_en_Indonésie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grippe_aviaire_en_Indon%C3%A9sie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Chronologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Au 13 mai 2006, le H5N1 a touché 11 des 23 provinces du pays. Les bovins sont chers, peu nombreux et habituellement maigres dans un pays où la majorité des habitants étant musulmans, on mange peu de porc. Traditionnellement, les Indonésiens mangent donc plutôt de la volaille. Ceci explique que les campagnes d'abattages de poulet dans la capitale (officiellement touchée par le H5N1 depuis 2003) et dans ses ceintures de banlieues n'ont pas été totalement suivies d'effet.
+En octobre, il y avait 88 morts du H5N1 dans le pays, le plus touché par le H5N1 au monde en nombre de morts et par le pourcentage de malades qui meurent. Mercredi 8 août 2007, le Gouvernement disait respecter les recommandations de l’OMS en vaccinant les volailles, en abattant les poulets et oiseaux infectés dans un rayon d'1 km autour des foyers, mais selon le Jakarta Post, les impacts aviaires du H5N1 sont sous-estimés dans le pays. 500 000 poulets au moins seraient ainsi probablement morts dans la capitale et sa banlieue de janvier à juillet 2007 selon le journal, beaucoup n’ayant pas été déclarés par leur propriétaire ni par les services sanitaires qui manquent de personnel. Le journal cite Heru Setijanto, vétérinaire à lInstitut de l'agriculture de Bogor selon qui les cas déclarés pourraient n’être qu’une partie de l’iceberg, expliquant que « Des poulets meurent partout. Le problème est que ces morts ne sont pas rapportées » Le 6 août 2007 (communiqué AFP), David Heymann (Directeur général adjoint de l'OMS chargé des maladies transmissibles) a accusé l’Indonésie de mettre sa propre population et celle du monde en danger en ayant bloqué le don gracieux d’échantillons récents de ses virus H5N1, nécessaires à la mise au point de vaccins adaptés aux mutations régulières du virus. L’Indonésie s’est défendue en expliquant que les pays pauvres, les plus touchés doivent donner gratuitement leurs échantillons, mais que les vaccins leur sont ensuite vendus à des coûts prohibitifs par l’Industrie pharmaceutique. Ce pays avait en mai 2007, annoncé avoir à nouveau fourni à un laboratoire référent de l'OMS à Tokyo trois échantillons de virus, par « solidarité». Mais selon M. Heymann, les trois échantillons ne contenaient aucun virus et deux d'entre eux avaient été prélevés sur la même personne. Les membres de l'OMS doivent en novembre 2007 fixer de nouvelles règles à ce sujet. Selon D Heymann, la Chine a bien communiqué en juin des échantillons de H5N1 et le Viêt Nam veut le faire, mais ses envois ont été bloqués pour raisons de sécurité. 
+Lundi 22 janvier 2007 : 62e mort de la grippe aviaire, c'est la cinquième personne morte de la grippe aviaire depuis le début de l'année
+Mercredi 24 janvier 2007 : le Ministère de la Santé indonésien confirme un nouveau cas humain de H5N1 dans la province de Java-Ouest. Les symptômes datent du 11 janvier chez cette femme de 26 ans, quelques jours après qu'elle a tué des poulets malades. Elle est morte 8 jours après à l'hôpital (le 19 janvier).
+Samedi 3 février 2007 : l'OMS confirme 81 cas humains repérés dans le pays dont 63 ont été mortels.
+Dimanche 11 février 2007 : Une femme âgée de 20 ans soignée dans un hôpital de la province de Java a été révélée positive au virus de la grippe aviaire, a indiqué dimanche un responsable de la santé à Jakarta.
+Vendredi 16 mars 2007 : Une jeune femme de 20 ans se trouvait dans un état critique lundi 12 mars à la suite d'une infection par le virus H5N1 et se trouve dans un état critique dans un hôpital de Java qui a confirmé le diagnostic dimanche.
+Mercredi 4 avril 2007 : Une jeune femme de 23 ans, atteinte du virus H5N1 HP est décédée dimanche dans un hôpital de Jakarta. Si ce cas est confirmé par l'OMS alors l’Indonésie aura son 72e cas de décès dans le pays depuis l'apparition du virus soit 9 cas de plus que l'OMS a officiellement déclarés (81 cas pour 63 décès).
+après une période non suivie ici..
+Samedi 12 mai 2007 : Nerpi Sitinjak, Indonésienne de 26 ans, de la région de Percut Sei Tuan, après 3 jours de soins à l'Hôpital Adam Malik Haj (le H5N1 a été identifié par un test le 8 mai) est morte du H5N1 dans le district de Deli Serdang (province de Sumatra du Nord), portant à 76 le nombre de morts déclarés dans le pays. C'est le 1er cas mortel humain repéré dans cette région en 2007 (Mais en 2006, 6 cas suspects d'une même famille de Sumatra du Nord, avaient été soignés dans cet hôpital, un seul a guéri).
+Mercredi 22 mai 2007 : Une enfant de cinq ans hospitalisée à Solo(province de Java-Centre) pour des symptômes grippaux, après avoir eu des contacts avec des poulets malades, est morte du H5N1, cinq jours après (le 17 mai).
+mardi 12 juin 2007 : Des experts des États-Unis et indonésiens réunis à Jakarta pour une conférence sur la vaccination contre la grippe aviaire appellent les organismes ad hoc à étudier de manière urgente pourquoi et comment les souches de H5N1 ont muté en Indonésie, afin de produire un vaccin adéquat. Widya Asmara (centre de recherches biotechnologiques de l'université de Gadjah Mada), estime que des indices laissent penser que plusieurs souches virales ont géographiquement changé, dans plusieurs régions, et qu’il est urgent d’étudier ce changement qui pourrait nécessiter la production d’un nouveau vaccin. L'Indonésie (pays le plus affectée avec 79 morts) a maintenant 12 vaccins enregistrés pour la grippe aviaire, qui produisent un niveau élevé d'anticorps selon l'OMS.Les services d'hygiène ont vacciné des dizaines de millions de poulets dans l’archipel, mais sans avoir éradiqué le virus, alors que plus de 32 millions de familles élèvent des volailles en basse-cour. (Source : Xinhua)
+Ce même jour, Mr. Yatino, agriculteur de 28 ans hospitalisé le 11 juin est mort du H5N1 (le 80e) dans la province de Riau à l'hôpital Arifin Achmad à Pekanbaru (chef-lieu de la province). Il aurait mangé de la viande de poulets malades chez lui, dans le district (ou régence) de Indragiri Hulu (source site Detikcom).
+Mercredi 16 juin 2007 : Un homme (29 ans) du centre de l'île de Sumatra, hospitalisé le 11 juin pour des symptômes apparus après qu'il a eu un contact avec trois de ses cinq poulets morts brutalement (il a mangé un de ceux qui n'étaient pas morts), est mort du H5N1 (80e mort).
+Dimanche 8 juillet 2007 : Une fillette de 6 ans meurt du H5N1(81e cas). Selon le ministère de la Santé indonésien, elle ne semble pas avoir eu de contact avec des oiseaux ou volailles malades, mais aurait pu avoir été contaminée via le sol de l’école près de laquelle des oiseaux avaient été trouvés malades
+Dimanche 15 août 2007 : une Indonésienne de 29 ans est morte du H5N1 dans un hôpital de Bali (1er cas humain mortel reconnu sur l'île).
+Jeudi 16 août 2007 : L'État annonce la mort mardi 14 août 2007 d’une adolescente de 17 ans, originaire du centre de Java, mais travaillant à Tangerang (ouest de Djakarta), du H5N1 sur l'île de Java (83e décès dans le pays). Une forte fièvre et des difficultés respiratoires avaient touché la jeune fille la semaine précédente. Il n'y avait pas de volailles élevées dans son quartier.
+Mardi 9 octobre 2007 : Une femme de 44 ans de l'île de Sumatra meurt du H5N1.
+Samedi 13 octobre 2007 : Un adolescent de 12 ans meurt du H5N1 dans un hôpital de Jakarta, où il avait été transféré après avoir été hospitalisé à Tangerang (banlieue de Jakarta). C'est le 88e mort détecté dans le pays. L'enquête a montré qu'il avait été en contact avec des volailles mortes près de son école.</t>
         </is>
       </c>
     </row>
